--- a/test/srt/Game.of.Thrones.S06E01.The.Red.Woman.1080p.WEB-DL.DD5.1.H.264-NTb _sentences.xlsx
+++ b/test/srt/Game.of.Thrones.S06E01.The.Red.Woman.1080p.WEB-DL.DD5.1.H.264-NTb _sentences.xlsx
@@ -11,14 +11,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="456">
-  <si>
-    <t xml:space="preserve">แปลไทย สุนัขป่าโลกันตร์
-gotfansite.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Original subtitle by honeybunny
-www.addic7ed.com</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="518">
+  <si>
+    <t>แปลไทย สุนัขป่าโลกันตร์</t>
+  </si>
+  <si>
+    <t>gotfansite.com</t>
+  </si>
+  <si>
+    <t>Original subtitle by honeybunny</t>
+  </si>
+  <si>
+    <t>www.addic7ed.com</t>
   </si>
   <si>
     <t>เสียงมาจากลาน</t>
@@ -33,8 +37,10 @@
     <t>ฝีมือธอร์น</t>
   </si>
   <si>
-    <t xml:space="preserve">คิดว่าเหลือพี่น้องที่ไว้ใจได้
-สักกี่คน?</t>
+    <t>คิดว่าเหลือพี่น้องที่ไว้ใจได้</t>
+  </si>
+  <si>
+    <t>สักกี่คน?</t>
   </si>
   <si>
     <t>ไว้ใจ?</t>
@@ -88,8 +94,10 @@
     <t>และเหล่าหัวหน้าแห่งปราสาทนี้</t>
   </si>
   <si>
-    <t xml:space="preserve">- ฆาตกร!
-- คนทรยศ!</t>
+    <t>- ฆาตกร!</t>
+  </si>
+  <si>
+    <t>- คนทรยศ!</t>
   </si>
   <si>
     <t>เอ็งพูดถูก!</t>
@@ -122,8 +130,10 @@
     <t>ข้าถวายชีวิตให้</t>
   </si>
   <si>
-    <t xml:space="preserve">เราทุกคนล้วนถวายชีวิต
-แก่หน่วยพิทักษ์</t>
+    <t>เราทุกคนล้วนถวายชีวิต</t>
+  </si>
+  <si>
+    <t>แก่หน่วยพิทักษ์</t>
   </si>
   <si>
     <t>แต่จอน สโนว์ กำลังจะทำลายหน่วยของเรา</t>
@@ -147,8 +157,10 @@
     <t>เรื่องนั้นไม่สงสัยหรอก</t>
   </si>
   <si>
-    <t xml:space="preserve">แต่ที่หมอนั่นคิดว่าถูกต้อง
-จะเป็นจุดจบของเรา</t>
+    <t>แต่ที่หมอนั่นคิดว่าถูกต้อง</t>
+  </si>
+  <si>
+    <t>จะเป็นจุดจบของเรา</t>
   </si>
   <si>
     <t>มันบังคับให้เราทำเรื่องอัปรีย์</t>
@@ -181,15 +193,19 @@
     <t>เราไม่มีคน</t>
   </si>
   <si>
-    <t xml:space="preserve">- มีหมาป่าโลกันตร์ไง
-- ไม่พอ</t>
+    <t>- มีหมาป่าโลกันตร์ไง</t>
+  </si>
+  <si>
+    <t>- ไม่พอ</t>
   </si>
   <si>
     <t>ข้าเพิ่งจะได้รู้จักกับ ผบ.</t>
   </si>
   <si>
-    <t xml:space="preserve">แต่เชื่อว่าเขาไม่อยากให้เพื่อนๆ
-เอาชีวิตไปทิ้งเปล่าๆ หรอก</t>
+    <t>แต่เชื่อว่าเขาไม่อยากให้เพื่อนๆ</t>
+  </si>
+  <si>
+    <t>เอาชีวิตไปทิ้งเปล่าๆ หรอก</t>
   </si>
   <si>
     <t>ถ้าอยากรอดถึงพรุ่งนี้ ท่านเลือกผิดห้องแล้วว่ะ</t>
@@ -198,19 +214,25 @@
     <t>เราจะตายด้วยกันคืนนี้</t>
   </si>
   <si>
-    <t xml:space="preserve">และจะพยายามลากธอร์น
-ลงนรกไปด้วย</t>
+    <t>และจะพยายามลากธอร์น</t>
+  </si>
+  <si>
+    <t>ลงนรกไปด้วย</t>
   </si>
   <si>
     <t>เราต้องสู้ใช่ แต่ไม่จำเป็นต้องตาย</t>
   </si>
   <si>
-    <t xml:space="preserve">- ขอแค่มีคนช่วย.
-- ใครจะมาช่วยเรา?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">เจ้าไม่ใช่พวกเดียวนะ
-ที่ติดหนี้ชีวิตจอน สโนว์</t>
+    <t>- ขอแค่มีคนช่วย.</t>
+  </si>
+  <si>
+    <t>- ใครจะมาช่วยเรา?</t>
+  </si>
+  <si>
+    <t>เจ้าไม่ใช่พวกเดียวนะ</t>
+  </si>
+  <si>
+    <t>ที่ติดหนี้ชีวิตจอน สโนว์</t>
   </si>
   <si>
     <t>ปิดตายประตูไว้</t>
@@ -231,8 +253,10 @@
     <t>มีกลิ่นหมาติดตัว</t>
   </si>
   <si>
-    <t xml:space="preserve">ข้าไม่ได้แก่กว่าเท่าไหร่
-แต่ตอนนั้นใครๆ ก็กลัวข้าแล้ว</t>
+    <t>ข้าไม่ได้แก่กว่าเท่าไหร่</t>
+  </si>
+  <si>
+    <t>แต่ตอนนั้นใครๆ ก็กลัวข้าแล้ว</t>
   </si>
   <si>
     <t>เจ้าก็ด้วยนี่</t>
@@ -241,8 +265,10 @@
     <t>แต่เมอรันด้า ไม่เลย</t>
   </si>
   <si>
-    <t xml:space="preserve">จะทำอะไรเธอได้บ้างน้อ
-ที่หมาทำไม่ได้?</t>
+    <t>จะทำอะไรเธอได้บ้างน้อ</t>
+  </si>
+  <si>
+    <t>ที่หมาทำไม่ได้?</t>
   </si>
   <si>
     <t>เธอไม่กลัวอะไรเลย</t>
@@ -251,8 +277,10 @@
     <t>กล้าทำทุกอย่าง</t>
   </si>
   <si>
-    <t xml:space="preserve">ข้าจะให้มันชดใช้ความเจ็บปวดของเจ้า
-เป็นพันๆ ครั้ง</t>
+    <t>ข้าจะให้มันชดใช้ความเจ็บปวดของเจ้า</t>
+  </si>
+  <si>
+    <t>เป็นพันๆ ครั้ง</t>
   </si>
   <si>
     <t>อยากให้เจ้าได้เห็นจริงๆ</t>
@@ -276,15 +304,19 @@
     <t>เจ้าคุมกองม้าได้น่าประทับใจมาก</t>
   </si>
   <si>
-    <t xml:space="preserve">เพราะเจ้าแท้ๆ
-ถึงฆ่าราชาจอมปลอมแสตนนิสได้</t>
+    <t>เพราะเจ้าแท้ๆ</t>
+  </si>
+  <si>
+    <t>ถึงฆ่าราชาจอมปลอมแสตนนิสได้</t>
   </si>
   <si>
     <t>รู้ไหมใครเป็นคนลงดาบ?</t>
   </si>
   <si>
-    <t xml:space="preserve">- ไม่
-- น่าเสียดาย</t>
+    <t>- ไม่</t>
+  </si>
+  <si>
+    <t>- น่าเสียดาย</t>
   </si>
   <si>
     <t>จะตบรางวัลซะหน่อย</t>
@@ -308,8 +340,10 @@
     <t>และรุมฆ่าทหารอิดโรยของบะราธเธียน</t>
   </si>
   <si>
-    <t xml:space="preserve">จะเหมือนสู้ทัพแลนนิสเตอร์
-ที่เตรียมตัวอย่างดีเสบียงพร้อมรึ?</t>
+    <t>จะเหมือนสู้ทัพแลนนิสเตอร์</t>
+  </si>
+  <si>
+    <t>ที่เตรียมตัวอย่างดีเสบียงพร้อมรึ?</t>
   </si>
   <si>
     <t>ไม่ขอรับ</t>
@@ -333,8 +367,10 @@
     <t>เจ้าเอาเธอมาเล่นอย่างเคย</t>
   </si>
   <si>
-    <t xml:space="preserve">เจ้าเอาทายาทเกาะเหล็กมาเล่นอย่างเคย
-แล้วมันก็หนีไปทั้งคู่</t>
+    <t>เจ้าเอาทายาทเกาะเหล็กมาเล่นอย่างเคย</t>
+  </si>
+  <si>
+    <t>แล้วมันก็หนีไปทั้งคู่</t>
   </si>
   <si>
     <t>ข้าส่งคนกับหมาที่เก่งที่สุดไปแล้ว</t>
@@ -364,12 +400,16 @@
     <t>ต้องข้ามนี่ไป</t>
   </si>
   <si>
-    <t xml:space="preserve">- ข้าทำไม่ได้
-- เป็นทางเดียวที่จะสลัดหมาพวกนั้น</t>
-  </si>
-  <si>
-    <t xml:space="preserve">เย็นเกินไป ข้าทำไม่ได้
-ข้าไม่รอดแน่ ตายแน่ๆ</t>
+    <t>- ข้าทำไม่ได้</t>
+  </si>
+  <si>
+    <t>- เป็นทางเดียวที่จะสลัดหมาพวกนั้น</t>
+  </si>
+  <si>
+    <t>เย็นเกินไป ข้าทำไม่ได้</t>
+  </si>
+  <si>
+    <t>ข้าไม่รอดแน่ ตายแน่ๆ</t>
   </si>
   <si>
     <t>รู้ไหมหมาพวกนั้นทำอะไรคนบ้าง</t>
@@ -408,15 +448,19 @@
     <t>เห็นคนแล้วใช่มั้ย?</t>
   </si>
   <si>
-    <t xml:space="preserve">- นั่นไง!
-- จัดการมัน!</t>
+    <t>- นั่นไง!</t>
+  </si>
+  <si>
+    <t>- จัดการมัน!</t>
   </si>
   <si>
     <t>เลดี้บอลตันอยู่ไหน?</t>
   </si>
   <si>
-    <t xml:space="preserve">- ตายแล้ว
-- โกหก</t>
+    <t>- ตายแล้ว</t>
+  </si>
+  <si>
+    <t>- โกหก</t>
   </si>
   <si>
     <t>เธอโดดกำแพงลงมาขาหัก</t>
@@ -425,15 +469,19 @@
     <t>ข้าทิ้งเธอไว้ในกองหิมะ</t>
   </si>
   <si>
-    <t xml:space="preserve">เจออะไรเข้าแล้ว!
-วิ่งๆๆ!</t>
+    <t>เจออะไรเข้าแล้ว!</t>
+  </si>
+  <si>
+    <t>วิ่งๆๆ!</t>
   </si>
   <si>
     <t>รีซิสต์ คอย</t>
   </si>
   <si>
-    <t xml:space="preserve">ทนรอไม่ไหวแล้ว
-ว่าทีนี้แรมซีย์จะตัดอะไรเอ็ง</t>
+    <t>ทนรอไม่ไหวแล้ว</t>
+  </si>
+  <si>
+    <t>ว่าทีนี้แรมซีย์จะตัดอะไรเอ็ง</t>
   </si>
   <si>
     <t>มีม้า! ใครน่ะ?</t>
@@ -454,8 +502,10 @@
     <t>และสละชีพเพื่อท่านในคราจำเป็น</t>
   </si>
   <si>
-    <t xml:space="preserve">ขอสาบานต่อเทพ
-องค์เก่าและองค์ใหม่</t>
+    <t>ขอสาบานต่อเทพ</t>
+  </si>
+  <si>
+    <t>องค์เก่าและองค์ใหม่</t>
   </si>
   <si>
     <t>และข้าขอสาบาน...</t>
@@ -566,8 +616,10 @@
     <t>บริสุทธิ์ขนาดนี้ได้...</t>
   </si>
   <si>
-    <t xml:space="preserve">- ข้าอาจจะไม่ใช่นางมารก็ได้
-- ฟังนะ ฟังข้านะ</t>
+    <t>- ข้าอาจจะไม่ใช่นางมารก็ได้</t>
+  </si>
+  <si>
+    <t>- ฟังนะ ฟังข้านะ</t>
   </si>
   <si>
     <t>นั่นลูกสาวข้า และข้าพลาดเอง</t>
@@ -579,8 +631,10 @@
     <t>แม่มดบอกข้าหลายปีก่อน</t>
   </si>
   <si>
-    <t xml:space="preserve">ทำนายว่ามีลูกสาม
-ทำนายว่าลูกๆ จะตายหมด</t>
+    <t>ทำนายว่ามีลูกสาม</t>
+  </si>
+  <si>
+    <t>ทำนายว่าลูกๆ จะตายหมด</t>
   </si>
   <si>
     <t>"และทองจักคลุมศพ"</t>
@@ -595,8 +649,10 @@
     <t>มันคือลิขิตฟ้า</t>
   </si>
   <si>
-    <t xml:space="preserve">- เจ้าไม่เชื่อเสียหน่อย
-- เชื่อสิ</t>
+    <t>- เจ้าไม่เชื่อเสียหน่อย</t>
+  </si>
+  <si>
+    <t>- เชื่อสิ</t>
   </si>
   <si>
     <t>เจ้าบอกเองนี่ ตอนท่านพ่อตาย</t>
@@ -605,19 +661,25 @@
     <t>บอกว่าเราต้องไม่แตกคอกัน</t>
   </si>
   <si>
-    <t xml:space="preserve">บอกว่าคนอื่นจะยุยงพวกเรา
-ช่วงชิงของๆ เรา</t>
+    <t>บอกว่าคนอื่นจะยุยงพวกเรา</t>
+  </si>
+  <si>
+    <t>ช่วงชิงของๆ เรา</t>
   </si>
   <si>
     <t>นั่นก็อยู่ในคำทำนาย</t>
   </si>
   <si>
-    <t xml:space="preserve">ตอนนั้นข้าไม่ฟัง
-แต่ที่เจ้าพูดล้วนเป็นจริง</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ช่างหัวคำทำนาย
-ช่างหัวลิขิตฟ้า</t>
+    <t>ตอนนั้นข้าไม่ฟัง</t>
+  </si>
+  <si>
+    <t>แต่ที่เจ้าพูดล้วนเป็นจริง</t>
+  </si>
+  <si>
+    <t>ช่างหัวคำทำนาย</t>
+  </si>
+  <si>
+    <t>ช่างหัวลิขิตฟ้า</t>
   </si>
   <si>
     <t>ช่างหัวคนนอกแม่มให้หมด</t>
@@ -647,15 +709,19 @@
     <t>เพราะเขาเห็นแล้ว</t>
   </si>
   <si>
-    <t xml:space="preserve">ว่าหากไม่ปกปิดบาป
-เขาย่อมได้รับอภัยโทษ"</t>
+    <t>ว่าหากไม่ปกปิดบาป</t>
+  </si>
+  <si>
+    <t>เขาย่อมได้รับอภัยโทษ"</t>
   </si>
   <si>
     <t>ฉันอยากพบน้องชาย</t>
   </si>
   <si>
-    <t xml:space="preserve">- สารภาพ
-- ได้โปรดเถอะ</t>
+    <t>- สารภาพ</t>
+  </si>
+  <si>
+    <t>- ได้โปรดเถอะ</t>
   </si>
   <si>
     <t>อย่างน้อยบอกเถิด เขาสบายดีไหม?</t>
@@ -691,22 +757,28 @@
     <t>บอกทีเถิด น้องชายข้าเป็นไงบ้าง?</t>
   </si>
   <si>
-    <t xml:space="preserve">ข้ามาหา
-ไม่ใช่เพราะเซอร์ลอรัส</t>
+    <t>ข้ามาหา</t>
+  </si>
+  <si>
+    <t>ไม่ใช่เพราะเซอร์ลอรัส</t>
   </si>
   <si>
     <t>สามีคิดถึงเจ้ามาก</t>
   </si>
   <si>
-    <t xml:space="preserve">รักระหว่างสามีภรรยา
-เป็นสิ่งศักดิ์สิทธิ์</t>
+    <t>รักระหว่างสามีภรรยา</t>
+  </si>
+  <si>
+    <t>เป็นสิ่งศักดิ์สิทธิ์</t>
   </si>
   <si>
     <t>สะท้อนถึงรักที่พระเจ้ามีต่อเราทุกคน</t>
   </si>
   <si>
-    <t xml:space="preserve">แต่ความบาปพรากเรา
-จากพระผู้เป็นเจ้า</t>
+    <t>แต่ความบาปพรากเรา</t>
+  </si>
+  <si>
+    <t>จากพระผู้เป็นเจ้า</t>
   </si>
   <si>
     <t>เพียงการสารภาพ จึงล้างบาปได้</t>
@@ -751,8 +823,7 @@
     <t>หลับนอนกับสาวงานที่สุดในแผ่นดิน</t>
   </si>
   <si>
-    <t xml:space="preserve">- และหนุ่ม
-- และหนุ่ม</t>
+    <t>- และหนุ่ม</t>
   </si>
   <si>
     <t>เขาได้ทำทุกอย่าง</t>
@@ -806,12 +877,16 @@
     <t>เขารังเกียจท่านทั้งนั้น</t>
   </si>
   <si>
-    <t xml:space="preserve">เอเลีย มาร์เทล ถูกข่มขืนฆ่า
-ท่านไม่ทำอะไรเลย</t>
-  </si>
-  <si>
-    <t xml:space="preserve">โอเบอริน มาร์เทลถูกฆ่า
-ท่านก็ไม่ทำอะไรเลย</t>
+    <t>เอเลีย มาร์เทล ถูกข่มขืนฆ่า</t>
+  </si>
+  <si>
+    <t>ท่านไม่ทำอะไรเลย</t>
+  </si>
+  <si>
+    <t>โอเบอริน มาร์เทลถูกฆ่า</t>
+  </si>
+  <si>
+    <t>ท่านก็ไม่ทำอะไรเลย</t>
   </si>
   <si>
     <t>ท่านมันไม่ใช่ชาวดอร์นิช</t>
@@ -826,8 +901,10 @@
     <t>ลูกท่านมันอ่อนแอเหมือนพ่อ</t>
   </si>
   <si>
-    <t xml:space="preserve">ผู้ชายปวกเปียก
-จะไม่ได้ครองดอร์นอีกต่อไปแล้ว</t>
+    <t>ผู้ชายปวกเปียก</t>
+  </si>
+  <si>
+    <t>จะไม่ได้ครองดอร์นอีกต่อไปแล้ว</t>
   </si>
   <si>
     <t>บอกแล้วว่าไม่หิว</t>
@@ -842,8 +919,10 @@
     <t>อยากให้คนนั้นลงมือ หรือข้าดี?</t>
   </si>
   <si>
-    <t xml:space="preserve">เราครอบครัวกันนะ
-ข้าไม่อยากทำร้ายเจ้า</t>
+    <t>เราครอบครัวกันนะ</t>
+  </si>
+  <si>
+    <t>ข้าไม่อยากทำร้ายเจ้า</t>
   </si>
   <si>
     <t>คนนั้น หรือข้าดี?</t>
@@ -864,8 +943,10 @@
     <t>เราแก้ไขอะไรเมืองนี้ไม่ได้หรอก</t>
   </si>
   <si>
-    <t xml:space="preserve">ถ้านั่งจุ้มปุ๊ก
-อยู่ยอดปิระมิด 800 ฟุตโน่น</t>
+    <t>ถ้านั่งจุ้มปุ๊ก</t>
+  </si>
+  <si>
+    <t>อยู่ยอดปิระมิด 800 ฟุตโน่น</t>
   </si>
   <si>
     <t>ไม่ต้องห่วงน่า</t>
@@ -883,8 +964,10 @@
     <t>ท่านเดินอย่างกับเป็นเจ้าของถนน</t>
   </si>
   <si>
-    <t xml:space="preserve">ตอนเด็กๆ
- ข้าขโมยจากคนแบบท่านนี่แหละ</t>
+    <t>ตอนเด็กๆ</t>
+  </si>
+  <si>
+    <t>ข้าขโมยจากคนแบบท่านนี่แหละ</t>
   </si>
   <si>
     <t>ดีนะเจ้าไม่เด็กแล้ว</t>
@@ -911,16 +994,22 @@
     <t>(เด็กจะได้มีอะไรกิน)</t>
   </si>
   <si>
-    <t xml:space="preserve">- มีซ่า แปลว่าแม่ในภาษาวาลีเรียน
-- คำนี้ข้ารู้</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- ใครเขียน?
-- เดายากนะ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ราชินีเราเสื่อมความนิยม
-ในเมียรีนไปมาก</t>
+    <t>- มีซ่า แปลว่าแม่ในภาษาวาลีเรียน</t>
+  </si>
+  <si>
+    <t>- คำนี้ข้ารู้</t>
+  </si>
+  <si>
+    <t>- ใครเขียน?</t>
+  </si>
+  <si>
+    <t>- เดายากนะ</t>
+  </si>
+  <si>
+    <t>ราชินีเราเสื่อมความนิยม</t>
+  </si>
+  <si>
+    <t>ในเมียรีนไปมาก</t>
   </si>
   <si>
     <t>บุตรฮาร์ปี้?</t>
@@ -929,12 +1018,16 @@
     <t>เป็นไปได้มาก</t>
   </si>
   <si>
-    <t xml:space="preserve">เดเนอริส ทาร์แกเรียน
-ชิงทรัพย์สินล้ำค่าที่สุดของมันไป</t>
-  </si>
-  <si>
-    <t xml:space="preserve">บอกถึงขั้นว่ามนุษย์
-ไม่ใช่ทรัพย์สินด้วยซ้ำ</t>
+    <t>เดเนอริส ทาร์แกเรียน</t>
+  </si>
+  <si>
+    <t>ชิงทรัพย์สินล้ำค่าที่สุดของมันไป</t>
+  </si>
+  <si>
+    <t>บอกถึงขั้นว่ามนุษย์</t>
+  </si>
+  <si>
+    <t>ไม่ใช่ทรัพย์สินด้วยซ้ำ</t>
   </si>
   <si>
     <t>เข้าใจไม่ยากทำไมมันไม่ชอบใจ</t>
@@ -955,8 +1048,10 @@
     <t>(แต่สาวกความมืด ขับไล่มารดาไป)</t>
   </si>
   <si>
-    <t xml:space="preserve">อดีตทาสมากมาย
-คิดว่าถูกเดเนอริสทอดทิ้ง</t>
+    <t>อดีตทาสมากมาย</t>
+  </si>
+  <si>
+    <t>คิดว่าถูกเดเนอริสทอดทิ้ง</t>
   </si>
   <si>
     <t>ก็ขี่มังกรไปและไม่ได้กลับมาจริงๆ นี่นา</t>
@@ -1004,12 +1099,16 @@
     <t>นกน้อยข้าบินออกไปแล้ว</t>
   </si>
   <si>
-    <t xml:space="preserve">ไม่นานก็จะกลับมา
-ร้องเพลงคนในหน้ากากทอง</t>
-  </si>
-  <si>
-    <t xml:space="preserve">นะ ท่าจะอดขึ้นเรือกลับเวสเทอรอส
-อีกนานเลย</t>
+    <t>ไม่นานก็จะกลับมา</t>
+  </si>
+  <si>
+    <t>ร้องเพลงคนในหน้ากากทอง</t>
+  </si>
+  <si>
+    <t>นะ ท่าจะอดขึ้นเรือกลับเวสเทอรอส</t>
+  </si>
+  <si>
+    <t>อีกนานเลย</t>
   </si>
   <si>
     <t>แพะ?</t>
@@ -1063,8 +1162,10 @@
     <t>เซ็งแหงอยู่แล้ว</t>
   </si>
   <si>
-    <t xml:space="preserve">เอ็งมันโรแมนติกว่ะ
-ขอชื่นชม</t>
+    <t>เอ็งมันโรแมนติกว่ะ</t>
+  </si>
+  <si>
+    <t>ขอชื่นชม</t>
   </si>
   <si>
     <t>บางทีเห็นเอ็งแล้วอดคิดไม่ได้</t>
@@ -1310,19 +1411,25 @@
     <t>ขอบคุณ</t>
   </si>
   <si>
-    <t xml:space="preserve">เกิดเรื่องกับราชองครักษ์แบบนั้น
-ใครจะไปอยากไปอีก?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- มันแกว่งเท้าหาเสี้ยนเอง
-- ก็คงใช่</t>
+    <t>เกิดเรื่องกับราชองครักษ์แบบนั้น</t>
+  </si>
+  <si>
+    <t>ใครจะไปอยากไปอีก?</t>
+  </si>
+  <si>
+    <t>- มันแกว่งเท้าหาเสี้ยนเอง</t>
+  </si>
+  <si>
+    <t>- ก็คงใช่</t>
   </si>
   <si>
     <t>แต่ข้าไม่เสี่ยงว่ะ</t>
   </si>
   <si>
-    <t xml:space="preserve">- ลดไม่ได้แล้ว
-- ก็ได้ๆ</t>
+    <t>- ลดไม่ได้แล้ว</t>
+  </si>
+  <si>
+    <t>- ก็ได้ๆ</t>
   </si>
   <si>
     <t>ซื่อตรงด้วย หมอนั่นเข้าใจ</t>
@@ -1361,8 +1468,10 @@
     <t>เราต่างเป็นอัศวินที่ได้รับเจิม</t>
   </si>
   <si>
-    <t xml:space="preserve">ได้ยินไหมหนุ่ม?
-ไม่มีอะไรต้องกลัว</t>
+    <t>ได้ยินไหมหนุ่ม?</t>
+  </si>
+  <si>
+    <t>ไม่มีอะไรต้องกลัว</t>
   </si>
   <si>
     <t>ข้าจะยกโทษให้พี่น้องทุกคน</t>
@@ -1371,8 +1480,10 @@
     <t>ที่ยอมลดอาวุธก่อนค่ำ</t>
   </si>
   <si>
-    <t xml:space="preserve">ส่วนเซอร์ดาวอส
-ข้าจะยอมให้ท่านเดินทางลงใต้</t>
+    <t>ส่วนเซอร์ดาวอส</t>
+  </si>
+  <si>
+    <t>ข้าจะยอมให้ท่านเดินทางลงใต้</t>
   </si>
   <si>
     <t>ให้อิสระ ให้ม้าใหม่</t>
@@ -1384,12 +1495,16 @@
     <t>ข้าอยากได้แกะ</t>
   </si>
   <si>
-    <t xml:space="preserve">- อะไรนะ?
-- ข้าไม่ใช่นายพราน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">จะลงใต้โดยไม่อดตาย
-ก็ต้องมีเสบียงหน่อย</t>
+    <t>- อะไรนะ?</t>
+  </si>
+  <si>
+    <t>- ข้าไม่ใช่นายพราน</t>
+  </si>
+  <si>
+    <t>จะลงใต้โดยไม่อดตาย</t>
+  </si>
+  <si>
+    <t>ก็ต้องมีเสบียงหน่อย</t>
   </si>
   <si>
     <t>จะให้อาหารละกัน</t>
@@ -1401,8 +1516,10 @@
     <t>หรือจะทิ้งไว้นี่ก็ได้ แล้วแต่เลย</t>
   </si>
   <si>
-    <t xml:space="preserve">แต่ต้องยอมจำนวนก่อนค่ำ
-ไม่งั้นนองเลือดแน่</t>
+    <t>แต่ต้องยอมจำนวนก่อนค่ำ</t>
+  </si>
+  <si>
+    <t>ไม่งั้นนองเลือดแน่</t>
   </si>
   <si>
     <t>ขอบคุณมาก เซอร์อัลลิสเซอร์</t>
@@ -1414,8 +1531,10 @@
     <t>หนุ่ม ข้าหนีคนแบบนั้นมาตลอดชีวิต</t>
   </si>
   <si>
-    <t xml:space="preserve">ความเห็นจากผู้มีประสบการณ์
-ถ้าเปิดประตูละก็...</t>
+    <t>ความเห็นจากผู้มีประสบการณ์</t>
+  </si>
+  <si>
+    <t>ถ้าเปิดประตูละก็...</t>
   </si>
   <si>
     <t>เชือดเรียบแน่</t>
@@ -1424,12 +1543,16 @@
     <t>มันอยากเข้ามา มันเข้าได้แน่</t>
   </si>
   <si>
-    <t xml:space="preserve">- ใช่ ไม่ได้แปลว่าต้องยอมง่ายๆ
-- ความหวังอยู่ที่เอ็ด</t>
-  </si>
-  <si>
-    <t xml:space="preserve">สิ้นหวังว่ะ
-ถ้าต้องหวังพึ่งเอ็ด</t>
+    <t>- ใช่ ไม่ได้แปลว่าต้องยอมง่ายๆ</t>
+  </si>
+  <si>
+    <t>- ความหวังอยู่ที่เอ็ด</t>
+  </si>
+  <si>
+    <t>สิ้นหวังว่ะ</t>
+  </si>
+  <si>
+    <t>ถ้าต้องหวังพึ่งเอ็ด</t>
   </si>
   <si>
     <t>มีสตรีแดงด้วยไง</t>
@@ -1441,8 +1564,7 @@
     <t>เจ้าไม่เคยเห็นที่ข้าเห็นน่ะสิ</t>
   </si>
   <si>
-    <t xml:space="preserve">แปลไทย - สุขันป่าโลกันตร์
-gotfansite.com</t>
+    <t>แปลไทย - สุขันป่าโลกันตร์</t>
   </si>
 </sst>
 </file>
@@ -1819,7 +1941,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A458"/>
+  <dimension ref="A1:A522"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -2409,102 +2531,102 @@
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
@@ -3184,712 +3306,712 @@
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>364</v>
+        <v>411</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
@@ -4110,6 +4232,326 @@
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>455</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/test/srt/Game.of.Thrones.S06E01.The.Red.Woman.1080p.WEB-DL.DD5.1.H.264-NTb _sentences.xlsx
+++ b/test/srt/Game.of.Thrones.S06E01.The.Red.Woman.1080p.WEB-DL.DD5.1.H.264-NTb _sentences.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="512">
   <si>
     <t>แปลไทย สุนัขป่าโลกันตร์</t>
   </si>
@@ -616,10 +616,8 @@
     <t>บริสุทธิ์ขนาดนี้ได้...</t>
   </si>
   <si>
-    <t>- ข้าอาจจะไม่ใช่นางมารก็ได้</t>
-  </si>
-  <si>
-    <t>- ฟังนะ ฟังข้านะ</t>
+    <t xml:space="preserve">- ข้าอาจจะไม่ใช่นางมารก็ได้
+- ฟังนะ ฟังข้านะ</t>
   </si>
   <si>
     <t>นั่นลูกสาวข้า และข้าพลาดเอง</t>
@@ -994,10 +992,8 @@
     <t>(เด็กจะได้มีอะไรกิน)</t>
   </si>
   <si>
-    <t>- มีซ่า แปลว่าแม่ในภาษาวาลีเรียน</t>
-  </si>
-  <si>
-    <t>- คำนี้ข้ารู้</t>
+    <t xml:space="preserve">- มีซ่า แปลว่าแม่ในภาษาวาลีเรียน
+- คำนี้ข้ารู้</t>
   </si>
   <si>
     <t>- ใครเขียน?</t>
@@ -1417,19 +1413,15 @@
     <t>ใครจะไปอยากไปอีก?</t>
   </si>
   <si>
-    <t>- มันแกว่งเท้าหาเสี้ยนเอง</t>
-  </si>
-  <si>
-    <t>- ก็คงใช่</t>
+    <t xml:space="preserve">- มันแกว่งเท้าหาเสี้ยนเอง
+- ก็คงใช่</t>
   </si>
   <si>
     <t>แต่ข้าไม่เสี่ยงว่ะ</t>
   </si>
   <si>
-    <t>- ลดไม่ได้แล้ว</t>
-  </si>
-  <si>
-    <t>- ก็ได้ๆ</t>
+    <t xml:space="preserve">- ลดไม่ได้แล้ว
+- ก็ได้ๆ</t>
   </si>
   <si>
     <t>ซื่อตรงด้วย หมอนั่นเข้าใจ</t>
@@ -1480,10 +1472,8 @@
     <t>ที่ยอมลดอาวุธก่อนค่ำ</t>
   </si>
   <si>
-    <t>ส่วนเซอร์ดาวอส</t>
-  </si>
-  <si>
-    <t>ข้าจะยอมให้ท่านเดินทางลงใต้</t>
+    <t xml:space="preserve">ส่วนเซอร์ดาวอส
+ข้าจะยอมให้ท่านเดินทางลงใต้</t>
   </si>
   <si>
     <t>ให้อิสระ ให้ม้าใหม่</t>
@@ -1543,10 +1533,8 @@
     <t>มันอยากเข้ามา มันเข้าได้แน่</t>
   </si>
   <si>
-    <t>- ใช่ ไม่ได้แปลว่าต้องยอมง่ายๆ</t>
-  </si>
-  <si>
-    <t>- ความหวังอยู่ที่เอ็ด</t>
+    <t xml:space="preserve">- ใช่ ไม่ได้แปลว่าต้องยอมง่ายๆ
+- ความหวังอยู่ที่เอ็ด</t>
   </si>
   <si>
     <t>สิ้นหวังว่ะ</t>
@@ -1941,7 +1929,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A522"/>
+  <dimension ref="A1:A516"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -3301,7 +3289,7 @@
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
@@ -4261,17 +4249,17 @@
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>461</v>
+        <v>413</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>415</v>
+        <v>462</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
@@ -4521,36 +4509,6 @@
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A517" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A518" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A519" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A520" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A521" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A522" t="s">
         <v>1</v>
       </c>
     </row>
